--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
-  <si>
-    <t>Zassssdasdagsddsa</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial Black"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="18"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,14 +52,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -347,19 +415,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51.42578125" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>0</v>
+    <row r="1" ht="27" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование Объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -1,40 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\gbnjy\bleessrng-rabotai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC0C78-70DE-4F45-8352-76506272AA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="9495" yWindow="630" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Расчет" sheetId="2" r:id="rId2"/>
+    <sheet name="Цены" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Наименование Объекта</t>
+  </si>
+  <si>
+    <t>Zassssdasdagsddsa</t>
+  </si>
+  <si>
+    <t>yfyfyfy</t>
+  </si>
+  <si>
+    <t>fyfyfy</t>
+  </si>
+  <si>
+    <t>fyfyfyfyyf</t>
+  </si>
+  <si>
+    <t>ADS1</t>
+  </si>
+  <si>
+    <t>ADS2</t>
+  </si>
+  <si>
+    <t>ADS3</t>
+  </si>
+  <si>
+    <t>ADS4</t>
+  </si>
+  <si>
+    <t>ADS5</t>
+  </si>
+  <si>
+    <t>ADS6</t>
+  </si>
+  <si>
+    <t>ADS7</t>
+  </si>
+  <si>
+    <t>ADS8</t>
+  </si>
+  <si>
+    <t>ADS9</t>
+  </si>
+  <si>
+    <t>ADS10</t>
+  </si>
+  <si>
+    <t>ADS11</t>
+  </si>
+  <si>
+    <t>ADS12</t>
+  </si>
+  <si>
+    <t>ADS13</t>
+  </si>
+  <si>
+    <t>ADS14</t>
+  </si>
+  <si>
+    <t>ADS15</t>
+  </si>
+  <si>
+    <t>ADS16</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Arial Black"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="18"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,81 +128,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,45 +431,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="51.42578125" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Наименование Объекта</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Zassssdasdagsddsa</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Zassssdasdagsddsa</t>
-        </is>
+    <row r="1" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>31</v>
+      </c>
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>46</v>
+      </c>
+      <c r="P3">
+        <v>47</v>
+      </c>
+      <c r="Q3">
+        <v>48</v>
+      </c>
+      <c r="R3">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -1,115 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\gbnjy\bleessrng-rabotai\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC0C78-70DE-4F45-8352-76506272AA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="630" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9495" yWindow="630" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Расчет" sheetId="2" r:id="rId2"/>
-    <sheet name="Цены" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расчет" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Цены" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>Наименование Объекта</t>
-  </si>
-  <si>
-    <t>Zassssdasdagsddsa</t>
-  </si>
-  <si>
-    <t>yfyfyfy</t>
-  </si>
-  <si>
-    <t>fyfyfy</t>
-  </si>
-  <si>
-    <t>fyfyfyfyyf</t>
-  </si>
-  <si>
-    <t>ADS1</t>
-  </si>
-  <si>
-    <t>ADS2</t>
-  </si>
-  <si>
-    <t>ADS3</t>
-  </si>
-  <si>
-    <t>ADS4</t>
-  </si>
-  <si>
-    <t>ADS5</t>
-  </si>
-  <si>
-    <t>ADS6</t>
-  </si>
-  <si>
-    <t>ADS7</t>
-  </si>
-  <si>
-    <t>ADS8</t>
-  </si>
-  <si>
-    <t>ADS9</t>
-  </si>
-  <si>
-    <t>ADS10</t>
-  </si>
-  <si>
-    <t>ADS11</t>
-  </si>
-  <si>
-    <t>ADS12</t>
-  </si>
-  <si>
-    <t>ADS13</t>
-  </si>
-  <si>
-    <t>ADS14</t>
-  </si>
-  <si>
-    <t>ADS15</t>
-  </si>
-  <si>
-    <t>ADS16</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial Black"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,23 +54,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -431,369 +418,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col width="51.42578125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="1" ht="27" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование Объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col width="22.7109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>yfyfyfy</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="n">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" t="n">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" t="n">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" t="n">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" t="n">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" t="n">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" t="n">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" t="n">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" t="n">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" t="n">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" t="n">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" t="n">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fyfyfy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>19</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>23</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>26</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>27</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>28</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>29</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>30</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>31</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>32</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fyfyfyfyyf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>33</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>34</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>35</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>37</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>38</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>39</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>40</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>41</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>42</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>43</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>44</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>45</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>46</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>47</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>48</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col width="26.5703125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Аттестация АС</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>1118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>1134</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Аттестация ВП</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Аттестация ИСПДн</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>КП</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ДИ НСД</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ДИ ПЭМИН</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Тестирование</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Пелена</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ВШ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Вибрики</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Винда</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>САВЗ</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>СЗИ от НСД</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Сис Админ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Разрешиловка</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Соната</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>СИ</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -650,6 +650,408 @@
       </c>
       <c r="R3" t="n">
         <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +1247,6 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="A19" s="2" t="n"/>
     </row>

--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -2,28 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9495" yWindow="630" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расчет" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Цены" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial Black"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="18"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,11 +54,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +423,488 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="51.42578125" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование Объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22.7109375" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>yfyfyfy</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fyfyfy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26</v>
+      </c>
+      <c r="L2" t="n">
+        <v>27</v>
+      </c>
+      <c r="M2" t="n">
+        <v>28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O2" t="n">
+        <v>30</v>
+      </c>
+      <c r="P2" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>32</v>
+      </c>
+      <c r="R2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fyfyfyfyyf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>39</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>42</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44</v>
+      </c>
+      <c r="N3" t="n">
+        <v>45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26.5703125" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Аттестация АС</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Аттестация ВП</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Аттестация ИСПДн</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>КП</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ДИ НСД</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ДИ ПЭМИН</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Тестирование</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Пелена</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ВШ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Вибрики</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Винда</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>САВЗ</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>СЗИ от НСД</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Сис Админ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Разрешиловка</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Соната</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>СИ</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -1051,6 +1051,341 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>какая-то херь</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>100</v>
       </c>
     </row>

--- a/ZP.xlsx
+++ b/ZP.xlsx
@@ -1,108 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bolog\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="3030" windowWidth="28800" windowHeight="15435" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9495" yWindow="3030" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Расчет" sheetId="2" r:id="rId2"/>
-    <sheet name="Цены" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расчет" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Цены" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Наименование Объекта</t>
-  </si>
-  <si>
-    <t>Zassssdasdagsddsa</t>
-  </si>
-  <si>
-    <t>Аттестация АС</t>
-  </si>
-  <si>
-    <t>Аттестация ВП</t>
-  </si>
-  <si>
-    <t>Аттестация ИСПДн</t>
-  </si>
-  <si>
-    <t>КП</t>
-  </si>
-  <si>
-    <t>ДИ НСД</t>
-  </si>
-  <si>
-    <t>ДИ ПЭМИН</t>
-  </si>
-  <si>
-    <t>Тестирование</t>
-  </si>
-  <si>
-    <t>Пелена</t>
-  </si>
-  <si>
-    <t>ВШ</t>
-  </si>
-  <si>
-    <t>Вибрики</t>
-  </si>
-  <si>
-    <t>Винда</t>
-  </si>
-  <si>
-    <t>САВЗ</t>
-  </si>
-  <si>
-    <t>СЗИ от НСД</t>
-  </si>
-  <si>
-    <t>Сис Админ</t>
-  </si>
-  <si>
-    <t>Разрешиловка</t>
-  </si>
-  <si>
-    <t>Соната</t>
-  </si>
-  <si>
-    <t>СИ</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial Black"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,23 +55,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,265 +418,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col width="51.42578125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="1" ht="27" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование Объекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Zassssdasdagsddsa</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col width="22.7109375" customWidth="1" min="1" max="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>zxc</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>15876</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col width="26.5703125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Аттестация АС</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>1118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Аттестация ВП</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Аттестация ИСПДн</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>КП</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ДИ НСД</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ДИ ПЭМИН</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Тестирование</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Пелена</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ВШ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Вибрики</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Винда</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>САВЗ</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>СЗИ от НСД</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Сис Админ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Разрешиловка</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Соната</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>СИ</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>